--- a/biology/Botanique/Quercus_georgiana/Quercus_georgiana.xlsx
+++ b/biology/Botanique/Quercus_georgiana/Quercus_georgiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Quercus georgiana est une espèce d'arbres du sous-genre Quercus et de la section Lobatae. L'espèce est présente aux États-Unis.
@@ -512,11 +524,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbre à feuilles caduques, pouvant mesurer jusqu'à 15 m de hauteur[2], à l'écorce claire et écailleuse. Les jeunes rameaux sont rouges et non velus. Les bourgeons terminaux, brun-rouge, sont de forme ovoïde ou presque conique et mesurent de 2,5 à 5 mm[2]. 
-Les feuilles, généralement glabres, sont portées par un pétiole mesurant de 0,6 à 2,3 cm de long[2]. De forme ovale ou elliptique, luisantes, elles mesurent de 4 à 13 cm de longueur pour 2 à 9 cm de largeur[2]. Chaque marge est découpée en 3 à 7 lobes assez profonds (généralement de 3 à 5 lobes) dont les pointes sont garnies d'une arête.
-Après une floraison printanière, apparaissent des glands à cupule fine et nettement écailleuse et duveteuse, de 4 à 6 mm de haut sur 9 à 14 mm de large et couvrant ainsi environ 1/3 du gland[2]. Le gland en lui-même mesure est glabre, globuleux et mesure de 9 à 14 mm de diamètre[2]. La cicatrice à la base a un diamètre de 4 à 7,5 mm[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbre à feuilles caduques, pouvant mesurer jusqu'à 15 m de hauteur, à l'écorce claire et écailleuse. Les jeunes rameaux sont rouges et non velus. Les bourgeons terminaux, brun-rouge, sont de forme ovoïde ou presque conique et mesurent de 2,5 à 5 mm. 
+Les feuilles, généralement glabres, sont portées par un pétiole mesurant de 0,6 à 2,3 cm de long. De forme ovale ou elliptique, luisantes, elles mesurent de 4 à 13 cm de longueur pour 2 à 9 cm de largeur. Chaque marge est découpée en 3 à 7 lobes assez profonds (généralement de 3 à 5 lobes) dont les pointes sont garnies d'une arête.
+Après une floraison printanière, apparaissent des glands à cupule fine et nettement écailleuse et duveteuse, de 4 à 6 mm de haut sur 9 à 14 mm de large et couvrant ainsi environ 1/3 du gland. Le gland en lui-même mesure est glabre, globuleux et mesure de 9 à 14 mm de diamètre. La cicatrice à la base a un diamètre de 4 à 7,5 mm.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Aire de répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce ne pousse à l'état sauvage que dans une zone limitée de l'est des États-Unis, en Alabama, Géorgie et Caroline du Sud. 
-Elle vit typiquement sur des collines et pentes sèches, sur affleurements granitiques, à une altitude allant de 50 à 500 m[2].
+Elle vit typiquement sur des collines et pentes sèches, sur affleurements granitiques, à une altitude allant de 50 à 500 m.
 </t>
         </is>
       </c>
